--- a/facebook_google_ads.xlsx
+++ b/facebook_google_ads.xlsx
@@ -7,7 +7,7 @@
     <workbookView windowWidth="20400" windowHeight="7815"/>
   </bookViews>
   <sheets>
-    <sheet name="Capstone Dataset" sheetId="1" r:id="rId1"/>
+    <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -66,11 +66,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="179" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="25">
@@ -107,6 +107,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -115,14 +123,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -137,15 +161,14 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -167,6 +190,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
@@ -182,14 +213,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -198,17 +221,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,37 +243,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -279,37 +279,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -321,7 +309,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -339,54 +369,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -399,7 +381,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,55 +459,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -642,6 +642,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -706,6 +721,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -714,175 +738,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -894,7 +894,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -909,7 +909,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -924,7 +924,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -936,7 +936,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="179" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -948,7 +948,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -961,7 +961,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
